--- a/ANOVA Workbook.xlsx
+++ b/ANOVA Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UHD\HEA 3312\Biostatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C28D982-6947-45CA-812A-44EB5A070296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1C28D982-6947-45CA-812A-44EB5A070296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E74CAAA-B998-4E1B-99C2-BC5303EB6179}"/>
   <bookViews>
-    <workbookView xWindow="-22104" yWindow="936" windowWidth="21600" windowHeight="11832" activeTab="7" xr2:uid="{9941B13F-6A2C-42B9-B1FE-C25203ECB6DE}"/>
+    <workbookView xWindow="-22104" yWindow="936" windowWidth="21600" windowHeight="11832" firstSheet="7" xr2:uid="{9941B13F-6A2C-42B9-B1FE-C25203ECB6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Data6" sheetId="9" r:id="rId6"/>
     <sheet name="Data7" sheetId="10" r:id="rId7"/>
     <sheet name="Data8" sheetId="11" r:id="rId8"/>
+    <sheet name="Data9" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="67">
   <si>
     <t>n</t>
   </si>
@@ -57,6 +58,12 @@
     <t>Median</t>
   </si>
   <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
     <t>Anova: Two-Factor Without Replication</t>
   </si>
   <si>
@@ -117,12 +124,6 @@
     <t>Std Dev</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
     <t>Back</t>
   </si>
   <si>
@@ -211,6 +212,39 @@
   </si>
   <si>
     <t>We reject the null hypothesis because the p-value is 0.043, which is less than the significance criterion of 0.05.</t>
+  </si>
+  <si>
+    <t>%_D_7_0.0</t>
+  </si>
+  <si>
+    <t>%_D_7_0.5</t>
+  </si>
+  <si>
+    <t>%_D_7_1.0</t>
+  </si>
+  <si>
+    <t>%_D_7_10.0</t>
+  </si>
+  <si>
+    <t>Red Radish</t>
+  </si>
+  <si>
+    <t>Red Wheat</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
   </si>
 </sst>
 </file>
@@ -220,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +270,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -356,11 +414,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -399,6 +466,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,9 +503,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +543,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +649,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,7 +791,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2FF84C-9C76-4BDF-B78F-6EB29E55DE51}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -732,7 +818,7 @@
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="C1" s="1">
         <v>185</v>
       </c>
@@ -761,7 +847,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -770,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -779,7 +865,7 @@
         <v>196.11111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -788,7 +874,7 @@
         <v>29.00191564554158</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -797,48 +883,48 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f>QUARTILE(B4:B6,1)</f>
         <v>111.5009578227708</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <f>QUARTILE(B4:B6,3)</f>
         <v>195.05555555555554</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -855,7 +941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -872,9 +958,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -889,9 +975,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -906,7 +992,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="3">
         <v>196.11111111111111</v>
       </c>
@@ -923,37 +1009,37 @@
         <v>6282.7373406786937</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>18848.212022036099</v>
@@ -974,9 +1060,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -997,9 +1083,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1011,9 +1097,9 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3">
         <v>18848.212022036099</v>
@@ -1039,12 +1125,12 @@
       <selection activeCell="A9" sqref="A9:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="C1">
         <v>3</v>
       </c>
@@ -1070,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1079,25 +1165,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>AVERAGE(C1:J1)</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <f>_xlfn.STDEV.S(C1:J1)</f>
         <v>2.6592157812837551</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1106,50 +1192,50 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f>QUARTILE(B3:B5,1)</f>
         <v>2.5796078906418778</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f>QUARTILE(B3:B5,3)</f>
         <v>2.9546078906418778</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1164,7 +1250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1181,9 +1267,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1198,9 +1284,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1215,7 +1301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>3.25</v>
       </c>
@@ -1232,37 +1318,37 @@
         <v>3.9381194168299452E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>0.11814358250489836</v>
@@ -1283,9 +1369,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1306,9 +1392,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1320,9 +1406,9 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>0.11814358250489836</v>
@@ -1348,12 +1434,12 @@
       <selection activeCell="A9" sqref="A9:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="C1">
         <v>120</v>
       </c>
@@ -1400,7 +1486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1408,25 +1494,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>AVERAGE(C1:Q1)</f>
         <v>142.33333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <f>_xlfn.STDEV.S(C1:Q1)</f>
         <v>14.110111200668763</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1435,50 +1521,50 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f>QUARTILE(B3:B5,1)</f>
         <v>78.221722267001056</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f>QUARTILE(B3:B5,3)</f>
         <v>143.66666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1493,7 +1579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1510,9 +1596,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1527,9 +1613,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1544,7 +1630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>142.33333333333334</v>
       </c>
@@ -1561,37 +1647,37 @@
         <v>3897.6266358229018</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>11692.879907468699</v>
@@ -1612,9 +1698,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1635,9 +1721,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1649,9 +1735,9 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>11692.879907468699</v>
@@ -1677,12 +1763,12 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="C1">
         <v>28</v>
       </c>
@@ -1714,7 +1800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1723,25 +1809,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>AVERAGE(C1:L1)</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <f>_xlfn.STDEV.S(C1:L1)</f>
         <v>11.147994338793762</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1750,50 +1836,50 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f>QUARTILE(B3:B5,1)</f>
         <v>26.823997169396883</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f>QUARTILE(B3:B5,3)</f>
         <v>43.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1808,7 +1894,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1825,9 +1911,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1842,9 +1928,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1859,7 +1945,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>42.5</v>
       </c>
@@ -1876,37 +1962,37 @@
         <v>249.68964692889176</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>749.06894078667585</v>
@@ -1927,9 +2013,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1950,9 +2036,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1964,9 +2050,9 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>749.06894078667585</v>
@@ -1992,12 +2078,12 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +2097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>140</v>
       </c>
@@ -2025,7 +2111,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>144</v>
       </c>
@@ -2039,7 +2125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>146</v>
       </c>
@@ -2053,7 +2139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>141</v>
       </c>
@@ -2067,7 +2153,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>139</v>
       </c>
@@ -2081,34 +2167,34 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2125,7 +2211,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2142,7 +2228,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2159,7 +2245,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -2176,35 +2262,35 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2227,7 +2313,7 @@
         <v>3.2388715174535854</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2241,9 +2327,9 @@
         <v>6.8250000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>194.94999999999996</v>
@@ -2256,7 +2342,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2278,9 +2364,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -2332,13 +2418,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>35</v>
@@ -2347,7 +2433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2358,9 +2444,9 @@
         <v>140.28571428571428</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>211.95238095238096</v>
@@ -2369,7 +2455,7 @@
         <v>166.9047619047619</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2380,7 +2466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2388,7 +2474,7 @@
         <v>0.97575076855315845</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2396,15 +2482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2498,7 @@
         <v>-0.65991201759608975</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2420,7 +2506,7 @@
         <v>0.26690384015022789</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2428,7 +2514,7 @@
         <v>1.9431802805153031</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2522,7 @@
         <v>0.53380768030045578</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -2445,7 +2531,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2552,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2474,7 +2560,7 @@
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -2488,7 +2574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="10">
         <v>54</v>
       </c>
@@ -2502,7 +2588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="12">
         <v>62</v>
       </c>
@@ -2516,7 +2602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="12">
         <v>78</v>
       </c>
@@ -2530,7 +2616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="14">
         <v>90</v>
       </c>
@@ -2544,34 +2630,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2588,7 +2674,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2605,7 +2691,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2622,7 +2708,7 @@
         <v>612.91666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2639,35 +2725,35 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2690,7 +2776,7 @@
         <v>3.4902948194976045</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2704,9 +2790,9 @@
         <v>366.04166666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>8449</v>
@@ -2719,27 +2805,27 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2753,11 +2839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65995D20-21A4-4513-983A-0E45216D83D0}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2765,7 +2849,7 @@
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -2779,7 +2863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="10">
         <v>54</v>
       </c>
@@ -2793,7 +2877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="12">
         <v>62</v>
       </c>
@@ -2807,7 +2891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="12">
         <v>78</v>
       </c>
@@ -2821,7 +2905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="14">
         <v>90</v>
       </c>
@@ -2835,34 +2919,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2879,7 +2963,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2896,7 +2980,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2913,7 +2997,7 @@
         <v>612.91666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2930,35 +3014,35 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2981,7 +3065,7 @@
         <v>3.4902948194976045</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2995,9 +3079,9 @@
         <v>366.04166666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>8449</v>
@@ -3010,69 +3094,856 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E40A9F-2B15-46A1-80C7-7BC64108435A}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="19">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7">
+        <v>85</v>
+      </c>
+      <c r="D3" s="7">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C5" s="7">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C6" s="7">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7">
+        <v>85</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="19">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C12" s="19">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="19">
+        <v>45</v>
+      </c>
+      <c r="C13" s="19">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="19">
+        <v>15</v>
+      </c>
+      <c r="C14" s="19">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="19">
+        <v>35</v>
+      </c>
+      <c r="C15" s="19">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="19">
+        <v>65</v>
+      </c>
+      <c r="C16" s="19">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7">
+        <v>70</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>310</v>
+      </c>
+      <c r="C23">
+        <v>270</v>
+      </c>
+      <c r="D23">
+        <v>240</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>107.5</v>
+      </c>
+      <c r="C25">
+        <v>605</v>
+      </c>
+      <c r="D25">
+        <v>132.5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>793.68421052631584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>355</v>
+      </c>
+      <c r="C29">
+        <v>350</v>
+      </c>
+      <c r="D29">
+        <v>315</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>230</v>
+      </c>
+      <c r="C31">
+        <v>237.5</v>
+      </c>
+      <c r="D31">
+        <v>370</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1073.3552631578948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>215</v>
+      </c>
+      <c r="C35">
+        <v>270</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>370</v>
+      </c>
+      <c r="C37">
+        <v>242.5</v>
+      </c>
+      <c r="D37">
+        <v>142.5</v>
+      </c>
+      <c r="E37">
+        <v>125</v>
+      </c>
+      <c r="F37">
+        <v>590.1973684210526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>880</v>
+      </c>
+      <c r="C41">
+        <v>890</v>
+      </c>
+      <c r="D41">
+        <v>810</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="C42">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="D42">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>348.09523809523824</v>
+      </c>
+      <c r="C43">
+        <v>370.95238095238113</v>
+      </c>
+      <c r="D43">
+        <v>229.28571428571428</v>
+      </c>
+      <c r="E43">
+        <v>42.142857142857146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>1877.5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>938.75</v>
+      </c>
+      <c r="E48">
+        <v>4.3875365141187928</v>
+      </c>
+      <c r="F48">
+        <v>1.7782993129391949E-2</v>
+      </c>
+      <c r="G48">
+        <v>3.1907273359284987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>34698.333333333336</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>11566.111111111111</v>
+      </c>
+      <c r="E49">
+        <v>54.057773450178509</v>
+      </c>
+      <c r="F49">
+        <v>2.0110888101906838E-15</v>
+      </c>
+      <c r="G49">
+        <v>2.7980606354356103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>1719.1666666666642</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>286.52777777777737</v>
+      </c>
+      <c r="E50">
+        <v>1.3391755923401474</v>
+      </c>
+      <c r="F50">
+        <v>0.25850410244228667</v>
+      </c>
+      <c r="G50">
+        <v>2.29460131347063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>10270</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>213.95833333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3">
+        <v>48565</v>
+      </c>
+      <c r="C53" s="3">
+        <v>59</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>